--- a/data/echoMRI/Kotz02072025.xlsx
+++ b/data/echoMRI/Kotz02072025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/STORE N GO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcab/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C3FBF-C7FA-DB41-8270-A9A5561CCB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7226ED6C-106A-E645-8004-B4B4845A2A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="20920" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14480" yWindow="4520" windowWidth="20920" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -58,43 +58,43 @@
     <t>3722</t>
   </si>
   <si>
-    <t>10:30:19; 7 Feb 2025; 73; ems</t>
-  </si>
-  <si>
     <t>3723</t>
   </si>
   <si>
-    <t>10:32:25; 7 Feb 2025; 31; ems</t>
-  </si>
-  <si>
     <t>3724</t>
   </si>
   <si>
-    <t>10:33:47; 7 Feb 2025; 31; ems</t>
-  </si>
-  <si>
     <t>3725</t>
   </si>
   <si>
-    <t>10:35:41; 7 Feb 2025; 27; ems</t>
-  </si>
-  <si>
     <t>3727</t>
   </si>
   <si>
-    <t>10:37:12; 7 Feb 2025; 32; ems</t>
-  </si>
-  <si>
     <t>3728</t>
   </si>
   <si>
-    <t>10:38:51; 7 Feb 2025; 31; ems</t>
-  </si>
-  <si>
     <t>3729</t>
   </si>
   <si>
-    <t>10:40:07; 7 Feb 2025; 31; ems</t>
+    <t>10:30:19 Feb 7, 2025; 73; ems</t>
+  </si>
+  <si>
+    <t>10:32:25 Feb 7, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:33:47 Feb 7, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:35:41 Feb 7, 2025; 27; ems</t>
+  </si>
+  <si>
+    <t>10:37:12 Feb 7, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>10:38:51 Feb 7, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>10:40:07 Feb 7, 2025; 31; ems</t>
   </si>
 </sst>
 </file>
@@ -436,10 +436,13 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="7" max="7" width="27.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -493,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -507,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>20.46</v>
@@ -522,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -536,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>19.3</v>
@@ -551,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -565,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>22.07</v>
@@ -580,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -594,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>17.79</v>
@@ -609,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -623,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>20.010000000000002</v>
@@ -638,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -652,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>22.91</v>
